--- a/Unterlagen/Finanzen.xlsx
+++ b/Unterlagen/Finanzen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicky\Documents\obsidian\Unterlagen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikla\Documents\Talebones\system\Unterlagen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0611C2-7ED3-4EF7-A9D9-A795F86564C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90641FAD-9D6B-4F13-9688-8F4100EE29DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{32882568-5BA4-4B07-A528-21089B4E00A0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{32882568-5BA4-4B07-A528-21089B4E00A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>Was</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>Emmy Video</t>
+  </si>
+  <si>
+    <t>Video Musik</t>
   </si>
 </sst>
 </file>
@@ -81,7 +87,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -447,18 +453,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC658D84-0353-4D3D-93C8-7579DCC1ADCA}">
-  <dimension ref="A3:C7"/>
+  <dimension ref="A3:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -469,7 +475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -480,7 +486,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -491,7 +497,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -502,7 +508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -511,6 +517,28 @@
       </c>
       <c r="C7" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Unterlagen/Finanzen.xlsx
+++ b/Unterlagen/Finanzen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikla\Documents\Talebones\system\Unterlagen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90641FAD-9D6B-4F13-9688-8F4100EE29DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1BA97C-C7BD-428E-A1A1-1015C9638358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{32882568-5BA4-4B07-A528-21089B4E00A0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Was</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>Video Musik</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>Instagram Werbung</t>
   </si>
 </sst>
 </file>
@@ -87,7 +93,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,18 +459,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC658D84-0353-4D3D-93C8-7579DCC1ADCA}">
-  <dimension ref="A3:C9"/>
+  <dimension ref="A3:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -475,7 +481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -486,7 +492,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -497,7 +503,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -508,7 +514,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -519,7 +525,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -530,7 +536,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -539,6 +545,17 @@
       </c>
       <c r="C9" s="1">
         <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Unterlagen/Finanzen.xlsx
+++ b/Unterlagen/Finanzen.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikla\Documents\Talebones\system\Unterlagen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1BA97C-C7BD-428E-A1A1-1015C9638358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED26DE5-05DE-464D-BB80-D2D42ACB94EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{32882568-5BA4-4B07-A528-21089B4E00A0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{32882568-5BA4-4B07-A528-21089B4E00A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Kickstarter" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="132">
   <si>
     <t>Was</t>
   </si>
@@ -84,19 +85,395 @@
   </si>
   <si>
     <t>Instagram Werbung</t>
+  </si>
+  <si>
+    <t>Total Amount:</t>
+  </si>
+  <si>
+    <t>EURO:DOLLAR EXCHANGE</t>
+  </si>
+  <si>
+    <t>Euro</t>
+  </si>
+  <si>
+    <t>Dollar</t>
+  </si>
+  <si>
+    <t>Percent</t>
+  </si>
+  <si>
+    <t>Kickstarter</t>
+  </si>
+  <si>
+    <t>Payment Processing Fee</t>
+  </si>
+  <si>
+    <t>Rest Amount (Euro)</t>
+  </si>
+  <si>
+    <t>Artists</t>
+  </si>
+  <si>
+    <t>Shipping Books</t>
+  </si>
+  <si>
+    <t>Book Calculation Table</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Cost Per Book</t>
+  </si>
+  <si>
+    <t>Total Costs</t>
+  </si>
+  <si>
+    <t>Cards Calculation Table</t>
+  </si>
+  <si>
+    <t>Books printing (1000)</t>
+  </si>
+  <si>
+    <t>Cards (100)</t>
+  </si>
+  <si>
+    <t>Plushies Calculation Table</t>
+  </si>
+  <si>
+    <t>Plushies (100)</t>
+  </si>
+  <si>
+    <t>Plushies Shipping</t>
+  </si>
+  <si>
+    <t>Dice</t>
+  </si>
+  <si>
+    <t>PDF</t>
+  </si>
+  <si>
+    <t>Mention</t>
+  </si>
+  <si>
+    <t>Hardcover</t>
+  </si>
+  <si>
+    <t>GM Screen</t>
+  </si>
+  <si>
+    <t>Dice Bag</t>
+  </si>
+  <si>
+    <t>Talecards Deck</t>
+  </si>
+  <si>
+    <t>Location Deck</t>
+  </si>
+  <si>
+    <t>Ambient Music Pack</t>
+  </si>
+  <si>
+    <t>Trading Trinkets</t>
+  </si>
+  <si>
+    <t>Combat Map Set</t>
+  </si>
+  <si>
+    <t>Custom Location Design</t>
+  </si>
+  <si>
+    <t>VTT Digital Assets</t>
+  </si>
+  <si>
+    <t>VTT Integration</t>
+  </si>
+  <si>
+    <t>Digital Location Deck</t>
+  </si>
+  <si>
+    <t>Digital Talecards Deck</t>
+  </si>
+  <si>
+    <t>Art Print</t>
+  </si>
+  <si>
+    <t>Custom Boss Design</t>
+  </si>
+  <si>
+    <t>Marrow Wraith Plushie</t>
+  </si>
+  <si>
+    <t>Custom Talebons Dice</t>
+  </si>
+  <si>
+    <t>Deluxe Talebones Dice</t>
+  </si>
+  <si>
+    <t>Items</t>
+  </si>
+  <si>
+    <t>Artist Component</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>€17 PDF</t>
+  </si>
+  <si>
+    <t>€59 Book + PDFs</t>
+  </si>
+  <si>
+    <t>€130 Core Box (All books + Cards + PDFs)</t>
+  </si>
+  <si>
+    <t>€1 Thank You Mention on website</t>
+  </si>
+  <si>
+    <t>€65 Digital Deluxe (PDFs+VTT Support+Cards)</t>
+  </si>
+  <si>
+    <t>€232 Location Design + Core Box</t>
+  </si>
+  <si>
+    <t>€37 Art Prints</t>
+  </si>
+  <si>
+    <t>€204 Boss Design + Core Box</t>
+  </si>
+  <si>
+    <t>Pledge Tiers</t>
+  </si>
+  <si>
+    <t>Add Ons</t>
+  </si>
+  <si>
+    <t>€15 Custom Kickstarter Dice</t>
+  </si>
+  <si>
+    <t>€26 Marrow Wraith Plushie</t>
+  </si>
+  <si>
+    <t>€20 Deluxe Talebones Dice</t>
+  </si>
+  <si>
+    <t>€18 Dice Bag</t>
+  </si>
+  <si>
+    <t>€23 Talecard Deck</t>
+  </si>
+  <si>
+    <t>€23 Location Deck</t>
+  </si>
+  <si>
+    <t>€19 PDF</t>
+  </si>
+  <si>
+    <t>€18 GM Screen</t>
+  </si>
+  <si>
+    <t>€60 VTT Integration</t>
+  </si>
+  <si>
+    <t>€13 Art Print</t>
+  </si>
+  <si>
+    <t>€55 Hardcover</t>
+  </si>
+  <si>
+    <t>€26 VTT Digital Assets</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Total Price</t>
+  </si>
+  <si>
+    <t>Artists Component</t>
+  </si>
+  <si>
+    <t>100% Artist Contribution</t>
+  </si>
+  <si>
+    <t>PDF, VTT Digital Assets, VTT Integration, Digital Location Deck, Digital Talecards Deck</t>
+  </si>
+  <si>
+    <t>Hardcover, PDF, Talecards, Locationcards, GM Screen, Ambient Music Pack, Dice Bag, Trading Trinkets, Combat Map Set</t>
+  </si>
+  <si>
+    <t>Artist Components</t>
+  </si>
+  <si>
+    <t>Hardcover, PDF, GM Screen</t>
+  </si>
+  <si>
+    <t>PDF, VTT Digital Assets</t>
+  </si>
+  <si>
+    <t>Artist Payment</t>
+  </si>
+  <si>
+    <t>Total Artist Payment:</t>
+  </si>
+  <si>
+    <t>Musician</t>
+  </si>
+  <si>
+    <t>Considered</t>
+  </si>
+  <si>
+    <t>Card Deck Artist</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>x (Me)</t>
+  </si>
+  <si>
+    <t>Shipping</t>
+  </si>
+  <si>
+    <t>https://youtu.be/fUNHVjG4978</t>
+  </si>
+  <si>
+    <t>Timeline</t>
+  </si>
+  <si>
+    <t>Finish final draft of rulebook</t>
+  </si>
+  <si>
+    <t>Finish dice bags</t>
+  </si>
+  <si>
+    <t>Finish GM Screen, Trading Trinkets &amp; Combat Maps</t>
+  </si>
+  <si>
+    <t>Pack packages</t>
+  </si>
+  <si>
+    <t>Send packages</t>
+  </si>
+  <si>
+    <t>https://thecozycuttlefish.com/best-six-pocket-dice-bag-free-sewing-tutorial/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zAWxhFm_w8M</t>
+  </si>
+  <si>
+    <t>Materials for production</t>
+  </si>
+  <si>
+    <t>Deutschland</t>
+  </si>
+  <si>
+    <t>Vereinigte Staaten von Amerika</t>
+  </si>
+  <si>
+    <t>Vereinigtes Königreich</t>
+  </si>
+  <si>
+    <t>Australien</t>
+  </si>
+  <si>
+    <t>Frankreich</t>
+  </si>
+  <si>
+    <t>Finnland</t>
+  </si>
+  <si>
+    <t>Kanada</t>
+  </si>
+  <si>
+    <t>Österreich</t>
+  </si>
+  <si>
+    <t>Tschechien</t>
+  </si>
+  <si>
+    <t>Spanien</t>
+  </si>
+  <si>
+    <t>Schweiz</t>
+  </si>
+  <si>
+    <t>Russische Föderation</t>
+  </si>
+  <si>
+    <t>Vereinigte Arabische Emirate</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>(Paid by customer to some extend)</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>German Book Printing</t>
+  </si>
+  <si>
+    <t>Lectorate &amp; Formatting</t>
+  </si>
+  <si>
+    <t>https://help.backerkit.com/article/850-charge-shipping-later-ready-to-add-shipping-fees</t>
+  </si>
+  <si>
+    <t>Dezember</t>
+  </si>
+  <si>
+    <t>Backerkit Fee</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="4">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
+    <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -119,14 +496,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -459,10 +862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC658D84-0353-4D3D-93C8-7579DCC1ADCA}">
-  <dimension ref="A3:C10"/>
+  <dimension ref="A3:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,13 +874,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="9" t="s">
         <v>1</v>
       </c>
     </row>
@@ -558,7 +961,1494 @@
         <v>25</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="4">
+        <v>134.74</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B9D369-250D-4AEF-86D7-82B874414297}">
+  <dimension ref="A1:T99"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.5703125" customWidth="1"/>
+    <col min="16" max="16" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1">
+        <v>6500</v>
+      </c>
+      <c r="D2" s="2">
+        <f>C2*$G$2</f>
+        <v>6874.4000000000005</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2">
+        <v>1.0576000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C3" s="1">
+        <f>$C$2*B3</f>
+        <v>325</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D5" si="0">C3*$G$2</f>
+        <v>343.72</v>
+      </c>
+      <c r="E3" s="1">
+        <f>C2-C3</f>
+        <v>6175</v>
+      </c>
+      <c r="F3" s="1">
+        <f>E3*$G$2</f>
+        <v>6530.68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C4" s="1">
+        <f>$C$2*B4</f>
+        <v>325</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>343.72</v>
+      </c>
+      <c r="E4" s="1">
+        <f>E3-C4</f>
+        <v>5850</v>
+      </c>
+      <c r="F4" s="1">
+        <f>E4*$G$2</f>
+        <v>6186.9600000000009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C5" s="1">
+        <f>T54</f>
+        <v>764.59999999999991</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>808.64095999999995</v>
+      </c>
+      <c r="E5" s="1">
+        <f>E4-C5</f>
+        <v>5085.3999999999996</v>
+      </c>
+      <c r="F5" s="1">
+        <f>E5*$G$2</f>
+        <v>5378.3190400000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4">
+        <f>D6/$G$2</f>
+        <v>2282.5264750378215</v>
+      </c>
+      <c r="D6" s="2">
+        <f>N10</f>
+        <v>2414</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" ref="E6:E7" si="1">E5-C6</f>
+        <v>2802.8735249621782</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" ref="F6:F14" si="2">E6*$G$2</f>
+        <v>2964.3190399999999</v>
+      </c>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="4">
+        <f>D7/$G$2</f>
+        <v>1558.2450832072616</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1648</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="1"/>
+        <v>1244.6284417549166</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="2"/>
+        <v>1316.3190399999999</v>
+      </c>
+      <c r="K7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7">
+        <v>1000</v>
+      </c>
+      <c r="M7">
+        <v>1500</v>
+      </c>
+      <c r="N7">
+        <v>200</v>
+      </c>
+      <c r="O7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="4">
+        <f>C7*0.19</f>
+        <v>296.06656580937971</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" ref="D8" si="3">C8*$G$2</f>
+        <v>313.12</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" ref="E8" si="4">E7-C8</f>
+        <v>948.56187594553694</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" ref="F8" si="5">E8*$G$2</f>
+        <v>1003.19904</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="4">
+        <f>D9/$G$2</f>
+        <v>309.19062027231467</v>
+      </c>
+      <c r="D9" s="2">
+        <f>L16</f>
+        <v>327</v>
+      </c>
+      <c r="E9" s="1">
+        <f>E8-C9</f>
+        <v>639.37125567322232</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="2"/>
+        <v>676.19903999999997</v>
+      </c>
+      <c r="K9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M9" s="2">
+        <v>2.08</v>
+      </c>
+      <c r="N9" s="2">
+        <v>12.07</v>
+      </c>
+      <c r="O9" s="2">
+        <v>5.53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="4">
+        <f>D10/$G$2</f>
+        <v>784.79576399394864</v>
+      </c>
+      <c r="D10" s="2">
+        <f>L23</f>
+        <v>830.00000000000011</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" ref="E10" si="6">E9-C10</f>
+        <v>-145.42450832072632</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="2"/>
+        <v>-153.80096000000017</v>
+      </c>
+      <c r="K10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="2">
+        <f>L7*L9</f>
+        <v>2200</v>
+      </c>
+      <c r="M10" s="2">
+        <f>M7*M9</f>
+        <v>3120</v>
+      </c>
+      <c r="N10" s="2">
+        <f t="shared" ref="N10:O10" si="7">N7*N9</f>
+        <v>2414</v>
+      </c>
+      <c r="O10" s="2">
+        <f t="shared" si="7"/>
+        <v>2765</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="4">
+        <f>D11/$G$2</f>
+        <v>368.75945537065047</v>
+      </c>
+      <c r="D11" s="2">
+        <v>390</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" ref="E11:E14" si="8">E10-C11</f>
+        <v>-514.18396369137679</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="2"/>
+        <v>-543.80096000000015</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="4">
+        <f>C11*0.19</f>
+        <v>70.064296520423596</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1905</v>
+      </c>
+      <c r="E12" s="1">
+        <f>E11-C12</f>
+        <v>-584.24826021180036</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" ref="F12" si="9">E12*$G$2</f>
+        <v>-617.90096000000017</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="4">
+        <f>((K80+K64)*15)+(K81*20)</f>
+        <v>945</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13" si="10">C13*$G$2</f>
+        <v>999.43200000000013</v>
+      </c>
+      <c r="E13" s="1">
+        <f>E12-C13</f>
+        <v>-1529.2482602118002</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="2"/>
+        <v>-1617.3329600000002</v>
+      </c>
+      <c r="J13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C14" s="4">
+        <f>K69*10*0.1</f>
+        <v>22</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" ref="D14" si="11">C14*$G$2</f>
+        <v>23.267200000000003</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="8"/>
+        <v>-1551.2482602118002</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="2"/>
+        <v>-1640.6001600000002</v>
+      </c>
+      <c r="K14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14">
+        <v>100</v>
+      </c>
+      <c r="M14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="4">
+        <v>200</v>
+      </c>
+      <c r="D15" s="2">
+        <f>C15*$G$2</f>
+        <v>211.52</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" ref="E15" si="12">E14-C15</f>
+        <v>-1751.2482602118002</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" ref="F15" si="13">E15*$G$2</f>
+        <v>-1852.1201600000002</v>
+      </c>
+      <c r="K15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" s="2">
+        <v>3.27</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="4">
+        <v>100</v>
+      </c>
+      <c r="D16" s="2">
+        <f>C16*$G$2</f>
+        <v>105.76</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" ref="E16" si="14">E15-C16</f>
+        <v>-1851.2482602118002</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" ref="F16" si="15">E16*$G$2</f>
+        <v>-1957.8801600000002</v>
+      </c>
+      <c r="K16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16" s="2">
+        <f>L14*L15</f>
+        <v>327</v>
+      </c>
+      <c r="M16" s="2">
+        <f>M14*M15</f>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K21" t="s">
+        <v>27</v>
+      </c>
+      <c r="L21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K22" t="s">
+        <v>28</v>
+      </c>
+      <c r="L22" s="2">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K23" t="s">
+        <v>29</v>
+      </c>
+      <c r="L23" s="2">
+        <f>L21*L22</f>
+        <v>830.00000000000011</v>
+      </c>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J29" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="O29" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="P29" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q29" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J30" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K30" s="7">
+        <v>42</v>
+      </c>
+      <c r="M30" s="5">
+        <v>17</v>
+      </c>
+      <c r="N30" s="5">
+        <f>K30*M30</f>
+        <v>714</v>
+      </c>
+      <c r="O30" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q30" s="5">
+        <f>N30*0.2</f>
+        <v>142.80000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J31" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K31" s="7">
+        <v>22</v>
+      </c>
+      <c r="M31" s="5">
+        <v>59</v>
+      </c>
+      <c r="N31" s="5">
+        <f t="shared" ref="N31:N37" si="16">K31*M31</f>
+        <v>1298</v>
+      </c>
+      <c r="O31" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q31" s="5">
+        <f>N31*0.2</f>
+        <v>259.60000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="J32" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K32" s="7">
+        <v>19</v>
+      </c>
+      <c r="M32" s="5">
+        <v>130</v>
+      </c>
+      <c r="N32" s="5">
+        <f t="shared" si="16"/>
+        <v>2470</v>
+      </c>
+      <c r="O32" t="s">
+        <v>88</v>
+      </c>
+      <c r="P32" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q32" s="5">
+        <f>($M$31*K32*0.2)+(18*K32*0.2)</f>
+        <v>292.60000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="J33" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K33" s="7">
+        <v>6</v>
+      </c>
+      <c r="M33" s="5">
+        <v>1</v>
+      </c>
+      <c r="N33" s="5">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+      <c r="Q33" s="5"/>
+    </row>
+    <row r="34" spans="10:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="J34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K34" s="7">
+        <v>6</v>
+      </c>
+      <c r="M34" s="5">
+        <v>65</v>
+      </c>
+      <c r="N34" s="5">
+        <f t="shared" si="16"/>
+        <v>390</v>
+      </c>
+      <c r="O34" t="s">
+        <v>87</v>
+      </c>
+      <c r="P34" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q34" s="5">
+        <f>M30*0.2+M51*0.2</f>
+        <v>8.6000000000000014</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="J35" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K35" s="7">
+        <v>2</v>
+      </c>
+      <c r="M35" s="5">
+        <v>232</v>
+      </c>
+      <c r="N35" s="5">
+        <f t="shared" si="16"/>
+        <v>464</v>
+      </c>
+      <c r="O35" t="s">
+        <v>88</v>
+      </c>
+      <c r="P35" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q35" s="5">
+        <f>($M$31*K35*0.2)+(18*K35*0.2)</f>
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J36" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K36" s="7">
+        <v>1</v>
+      </c>
+      <c r="M36" s="5">
+        <v>37</v>
+      </c>
+      <c r="N36" s="5">
+        <f t="shared" si="16"/>
+        <v>37</v>
+      </c>
+      <c r="O36" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q36" s="5">
+        <f t="shared" ref="Q36" si="17">N36*0.2</f>
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="J37" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K37" s="7">
+        <v>1</v>
+      </c>
+      <c r="M37" s="5">
+        <v>204</v>
+      </c>
+      <c r="N37" s="5">
+        <f t="shared" si="16"/>
+        <v>204</v>
+      </c>
+      <c r="O37" t="s">
+        <v>88</v>
+      </c>
+      <c r="P37" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q37" s="5">
+        <f>($M$31*K37*0.2)+(18*K37*0.2)</f>
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="M38" s="5"/>
+    </row>
+    <row r="39" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J39" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="M39" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="N39" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="O39" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q39" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="J40" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K40" s="7">
+        <v>11</v>
+      </c>
+      <c r="L40" s="8">
+        <v>11</v>
+      </c>
+      <c r="M40" s="5">
+        <v>15</v>
+      </c>
+      <c r="N40" s="5">
+        <f>M40*L40</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J41" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K41" s="7">
+        <v>9</v>
+      </c>
+      <c r="L41" s="8">
+        <v>9</v>
+      </c>
+      <c r="M41" s="5">
+        <v>26</v>
+      </c>
+      <c r="N41" s="5">
+        <f t="shared" ref="N41:N51" si="18">M41*L41</f>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J42" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K42" s="7">
+        <v>6</v>
+      </c>
+      <c r="L42" s="8">
+        <v>6</v>
+      </c>
+      <c r="M42" s="5">
+        <v>20</v>
+      </c>
+      <c r="N42" s="5">
+        <f t="shared" si="18"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J43" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K43" s="7">
+        <v>2</v>
+      </c>
+      <c r="L43" s="8">
+        <v>2</v>
+      </c>
+      <c r="M43" s="5">
+        <v>18</v>
+      </c>
+      <c r="N43" s="5">
+        <f t="shared" si="18"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J44" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K44" s="7">
+        <v>2</v>
+      </c>
+      <c r="L44" s="8">
+        <v>2</v>
+      </c>
+      <c r="M44" s="5">
+        <v>23</v>
+      </c>
+      <c r="N44" s="5">
+        <f t="shared" si="18"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J45" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K45" s="7">
+        <v>2</v>
+      </c>
+      <c r="L45" s="8">
+        <v>2</v>
+      </c>
+      <c r="M45" s="5">
+        <v>23</v>
+      </c>
+      <c r="N45" s="5">
+        <f t="shared" si="18"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J46" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K46" s="7">
+        <v>1</v>
+      </c>
+      <c r="L46" s="8">
+        <v>1</v>
+      </c>
+      <c r="M46" s="5">
+        <v>19</v>
+      </c>
+      <c r="N46" s="5">
+        <f t="shared" si="18"/>
+        <v>19</v>
+      </c>
+      <c r="O46" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q46" s="5">
+        <f>N46*0.2</f>
+        <v>3.8000000000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J47" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K47" s="7">
+        <v>1</v>
+      </c>
+      <c r="L47" s="8">
+        <v>1</v>
+      </c>
+      <c r="M47" s="5">
+        <v>18</v>
+      </c>
+      <c r="N47" s="5">
+        <f t="shared" si="18"/>
+        <v>18</v>
+      </c>
+      <c r="O47" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q47" s="5">
+        <f>N47*0.2</f>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J48" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K48" s="7">
+        <v>1</v>
+      </c>
+      <c r="L48" s="8">
+        <v>1</v>
+      </c>
+      <c r="M48" s="5">
+        <v>60</v>
+      </c>
+      <c r="N48" s="5">
+        <f t="shared" si="18"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="J49" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K49" s="7">
+        <v>1</v>
+      </c>
+      <c r="L49" s="8">
+        <v>1</v>
+      </c>
+      <c r="M49" s="5">
+        <v>13</v>
+      </c>
+      <c r="N49" s="5">
+        <f t="shared" si="18"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="J50" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K50" s="7">
+        <v>0</v>
+      </c>
+      <c r="L50" s="8">
+        <v>0</v>
+      </c>
+      <c r="M50" s="5">
+        <v>55</v>
+      </c>
+      <c r="N50" s="5">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="J51" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K51" s="7">
+        <v>0</v>
+      </c>
+      <c r="L51" s="8">
+        <v>0</v>
+      </c>
+      <c r="M51" s="5">
+        <v>26</v>
+      </c>
+      <c r="N51" s="5">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="S54" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="T54" s="5">
+        <f>SUM(Q30:Q37)+SUM(Q40:Q51)</f>
+        <v>764.59999999999991</v>
+      </c>
+    </row>
+    <row r="61" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="I61" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="M61" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="I62" t="s">
+        <v>59</v>
+      </c>
+      <c r="J62" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K62" s="7">
+        <v>74</v>
+      </c>
+      <c r="M62" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="I63" t="s">
+        <v>59</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K63" s="7">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="I64" t="s">
+        <v>59</v>
+      </c>
+      <c r="J64" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K64" s="7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="I65" t="s">
+        <v>108</v>
+      </c>
+      <c r="J65" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K65" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="H66" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="I66" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="J66" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K66" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="I67" t="s">
+        <v>59</v>
+      </c>
+      <c r="J67" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K67" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="I68" t="s">
+        <v>59</v>
+      </c>
+      <c r="J68" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K68" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="I69" t="s">
+        <v>59</v>
+      </c>
+      <c r="J69" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K69" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="J70" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K70" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="J71" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K71" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>101</v>
+      </c>
+      <c r="I72" t="s">
+        <v>59</v>
+      </c>
+      <c r="J72" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K72" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="I73" t="s">
+        <v>59</v>
+      </c>
+      <c r="J73" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K73" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="I74" t="s">
+        <v>98</v>
+      </c>
+      <c r="J74" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K74" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="I75" t="s">
+        <v>59</v>
+      </c>
+      <c r="J75" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K75" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D76" s="14">
+        <v>45809</v>
+      </c>
+      <c r="E76" t="s">
+        <v>102</v>
+      </c>
+      <c r="I76" t="s">
+        <v>59</v>
+      </c>
+      <c r="J76" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K76" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D77" s="14">
+        <v>45870</v>
+      </c>
+      <c r="E77" t="s">
+        <v>103</v>
+      </c>
+      <c r="I77" t="s">
+        <v>97</v>
+      </c>
+      <c r="J77" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K77" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D78" s="14">
+        <v>45901</v>
+      </c>
+      <c r="E78" t="s">
+        <v>104</v>
+      </c>
+      <c r="I78" t="s">
+        <v>59</v>
+      </c>
+      <c r="J78" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K78" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D79" s="14">
+        <v>45931</v>
+      </c>
+      <c r="E79" t="s">
+        <v>105</v>
+      </c>
+      <c r="I79" t="s">
+        <v>59</v>
+      </c>
+      <c r="J79" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K79" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D80" s="14">
+        <v>45931</v>
+      </c>
+      <c r="E80" t="s">
+        <v>106</v>
+      </c>
+      <c r="I80" t="s">
+        <v>59</v>
+      </c>
+      <c r="J80" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K80" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I81" t="s">
+        <v>59</v>
+      </c>
+      <c r="J81" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K81" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I85" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="J85" s="7">
+        <v>34</v>
+      </c>
+      <c r="K85" s="15">
+        <v>17</v>
+      </c>
+      <c r="L85" s="2">
+        <f>J85*K85</f>
+        <v>578</v>
+      </c>
+    </row>
+    <row r="86" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I86" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="J86" s="7">
+        <v>33</v>
+      </c>
+      <c r="K86" s="15">
+        <v>28</v>
+      </c>
+      <c r="L86" s="2">
+        <f t="shared" ref="L86:L98" si="19">J86*K86</f>
+        <v>924</v>
+      </c>
+    </row>
+    <row r="87" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I87" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="J87" s="7">
+        <v>8</v>
+      </c>
+      <c r="K87" s="15">
+        <v>17</v>
+      </c>
+      <c r="L87" s="2">
+        <f t="shared" si="19"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="88" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I88" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J88" s="7">
+        <v>3</v>
+      </c>
+      <c r="K88" s="15">
+        <v>35</v>
+      </c>
+      <c r="L88" s="2">
+        <f t="shared" si="19"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="89" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I89" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="J89" s="7">
+        <v>3</v>
+      </c>
+      <c r="K89" s="15">
+        <v>17</v>
+      </c>
+      <c r="L89" s="2">
+        <f t="shared" si="19"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="90" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I90" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J90" s="7">
+        <v>2</v>
+      </c>
+      <c r="K90" s="15">
+        <v>17</v>
+      </c>
+      <c r="L90" s="2">
+        <f t="shared" si="19"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="91" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I91" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="J91" s="7">
+        <v>2</v>
+      </c>
+      <c r="K91" s="15">
+        <v>28</v>
+      </c>
+      <c r="L91" s="2">
+        <f t="shared" si="19"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="92" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I92" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="J92" s="7">
+        <v>2</v>
+      </c>
+      <c r="K92" s="15">
+        <v>17</v>
+      </c>
+      <c r="L92" s="2">
+        <f t="shared" si="19"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="93" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I93" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="J93" s="7">
+        <v>1</v>
+      </c>
+      <c r="K93" s="15">
+        <v>17</v>
+      </c>
+      <c r="L93" s="2">
+        <f t="shared" si="19"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I94" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="J94" s="7">
+        <v>1</v>
+      </c>
+      <c r="K94" s="15">
+        <v>17</v>
+      </c>
+      <c r="L94" s="2">
+        <f t="shared" si="19"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I95" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="J95" s="7">
+        <v>1</v>
+      </c>
+      <c r="K95" s="15">
+        <v>17</v>
+      </c>
+      <c r="L95" s="2">
+        <f t="shared" si="19"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I96" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="J96" s="7">
+        <v>1</v>
+      </c>
+      <c r="K96" s="15">
+        <v>17</v>
+      </c>
+      <c r="L96" s="2">
+        <f t="shared" si="19"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I97" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="J97" s="7">
+        <v>1</v>
+      </c>
+      <c r="K97" s="15">
+        <v>40</v>
+      </c>
+      <c r="L97" s="2">
+        <f t="shared" si="19"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="98" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I98" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="J98" s="7">
+        <v>1</v>
+      </c>
+      <c r="K98" s="15">
+        <v>40</v>
+      </c>
+      <c r="L98" s="2">
+        <f t="shared" si="19"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I99" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="J99">
+        <f>SUM(J85:J98)</f>
+        <v>93</v>
+      </c>
+      <c r="K99" t="s">
+        <v>124</v>
+      </c>
+      <c r="L99" s="2">
+        <f>SUM(L85:L98)</f>
+        <v>2066</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I66" r:id="rId1" xr:uid="{6CA15BB2-EBC9-4E0F-8710-944035C0B046}"/>
+    <hyperlink ref="H66" r:id="rId2" xr:uid="{14E5461F-B364-472D-99A9-BC8D7BE79EDB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
+</worksheet>
 </file>
--- a/Unterlagen/Finanzen.xlsx
+++ b/Unterlagen/Finanzen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikla\Documents\Talebones\system\Unterlagen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED26DE5-05DE-464D-BB80-D2D42ACB94EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C412E7A-5C13-418B-BC47-58D34DCE5350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{32882568-5BA4-4B07-A528-21089B4E00A0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{32882568-5BA4-4B07-A528-21089B4E00A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="138">
   <si>
     <t>Was</t>
   </si>
@@ -117,9 +117,6 @@
     <t>Shipping Books</t>
   </si>
   <si>
-    <t>Book Calculation Table</t>
-  </si>
-  <si>
     <t>Count</t>
   </si>
   <si>
@@ -132,9 +129,6 @@
     <t>Cards Calculation Table</t>
   </si>
   <si>
-    <t>Books printing (1000)</t>
-  </si>
-  <si>
     <t>Cards (100)</t>
   </si>
   <si>
@@ -433,6 +427,30 @@
   </si>
   <si>
     <t>Backerkit Fee</t>
+  </si>
+  <si>
+    <t>Kickstarter Geld</t>
+  </si>
+  <si>
+    <t>Plushie Zahlung</t>
+  </si>
+  <si>
+    <t>Book Calculation Table: China</t>
+  </si>
+  <si>
+    <t>Books printing (200)</t>
+  </si>
+  <si>
+    <t>Shipping Costs</t>
+  </si>
+  <si>
+    <t>Production costs</t>
+  </si>
+  <si>
+    <t>Music Artist</t>
+  </si>
+  <si>
+    <t>Video 2</t>
   </si>
 </sst>
 </file>
@@ -500,7 +518,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -527,6 +545,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -862,18 +881,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC658D84-0353-4D3D-93C8-7579DCC1ADCA}">
-  <dimension ref="A3:C11"/>
+  <dimension ref="A3:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
@@ -884,7 +904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -894,8 +914,17 @@
       <c r="C4" s="1">
         <v>300</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G4" s="16">
+        <v>45650</v>
+      </c>
+      <c r="H4" t="s">
+        <v>130</v>
+      </c>
+      <c r="I4" s="4">
+        <v>5541.64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -905,8 +934,17 @@
       <c r="C5" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G5" s="16">
+        <v>45653</v>
+      </c>
+      <c r="H5" t="s">
+        <v>131</v>
+      </c>
+      <c r="I5" s="2">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -916,8 +954,17 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G6" s="16">
+        <v>45338</v>
+      </c>
+      <c r="H6" t="s">
+        <v>134</v>
+      </c>
+      <c r="I6" s="4">
+        <v>380.46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -927,8 +974,17 @@
       <c r="C7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G7" s="16">
+        <v>45716</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="4">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -938,8 +994,17 @@
       <c r="C8" s="1">
         <v>180</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G8" s="16">
+        <v>45716</v>
+      </c>
+      <c r="H8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I8" s="4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -949,8 +1014,17 @@
       <c r="C9" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G9" s="16">
+        <v>45716</v>
+      </c>
+      <c r="H9" t="s">
+        <v>137</v>
+      </c>
+      <c r="I9" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -961,12 +1035,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C11" s="4">
         <v>134.74</v>
@@ -981,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B9D369-250D-4AEF-86D7-82B874414297}">
   <dimension ref="A1:T99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,7 +1066,7 @@
     <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="30" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.140625" bestFit="1" customWidth="1"/>
@@ -1015,6 +1089,9 @@
       <c r="G1" s="9" t="s">
         <v>17</v>
       </c>
+      <c r="J1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1036,6 +1113,12 @@
       <c r="G2">
         <v>1.0576000000000001</v>
       </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2">
+        <v>200</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1084,6 +1167,16 @@
         <f>E4*$G$2</f>
         <v>6186.9600000000009</v>
       </c>
+      <c r="G4" s="4">
+        <v>5541.64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="4">
+        <f>L5/L2</f>
+        <v>14.786250000000001</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1094,67 +1187,72 @@
       </c>
       <c r="C5" s="1">
         <f>T54</f>
-        <v>764.59999999999991</v>
+        <v>600.59999999999991</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>808.64095999999995</v>
-      </c>
-      <c r="E5" s="1">
-        <f>E4-C5</f>
-        <v>5085.3999999999996</v>
+        <v>635.19455999999991</v>
+      </c>
+      <c r="E5" s="4">
+        <f>G4-C5</f>
+        <v>4941.0400000000009</v>
       </c>
       <c r="F5" s="1">
         <f>E5*$G$2</f>
-        <v>5378.3190400000003</v>
+        <v>5225.6439040000014</v>
+      </c>
+      <c r="K5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="4">
+        <v>2957.25</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="4">
-        <f>D6/$G$2</f>
-        <v>2282.5264750378215</v>
+        <f>L5</f>
+        <v>2957.25</v>
       </c>
       <c r="D6" s="2">
-        <f>N10</f>
-        <v>2414</v>
+        <f>C6*$G$2</f>
+        <v>3127.5876000000003</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" ref="E6:E7" si="1">E5-C6</f>
-        <v>2802.8735249621782</v>
+        <v>1983.7900000000009</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" ref="F6:F14" si="2">E6*$G$2</f>
-        <v>2964.3190399999999</v>
+        <v>2098.0563040000011</v>
       </c>
       <c r="J6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="4">
-        <f>D7/$G$2</f>
-        <v>1558.2450832072616</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2">
-        <v>1648</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="1"/>
-        <v>1244.6284417549166</v>
+        <v>1983.7900000000009</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="2"/>
-        <v>1316.3190399999999</v>
+        <v>2098.0563040000011</v>
       </c>
       <c r="K7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L7">
         <v>1000</v>
@@ -1169,34 +1267,34 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C8" s="4">
         <f>C7*0.19</f>
-        <v>296.06656580937971</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" ref="D8" si="3">C8*$G$2</f>
-        <v>313.12</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" ref="E8" si="4">E7-C8</f>
-        <v>948.56187594553694</v>
+        <v>1983.7900000000009</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" ref="F8" si="5">E8*$G$2</f>
-        <v>1003.19904</v>
+        <v>2098.0563040000011</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" s="4">
-        <f>D9/$G$2</f>
-        <v>309.19062027231467</v>
+        <f>D9/$G$2*0.97</f>
+        <v>299.91490166414525</v>
       </c>
       <c r="D9" s="2">
         <f>L16</f>
@@ -1204,14 +1302,14 @@
       </c>
       <c r="E9" s="1">
         <f>E8-C9</f>
-        <v>639.37125567322232</v>
+        <v>1683.8750983358557</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="2"/>
-        <v>676.19903999999997</v>
+        <v>1780.866304000001</v>
       </c>
       <c r="K9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L9" s="2">
         <v>2.2000000000000002</v>
@@ -1228,7 +1326,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C10" s="4">
         <f>D10/$G$2</f>
@@ -1240,14 +1338,14 @@
       </c>
       <c r="E10" s="1">
         <f t="shared" ref="E10" si="6">E9-C10</f>
-        <v>-145.42450832072632</v>
+        <v>899.07933434190704</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="2"/>
-        <v>-153.80096000000017</v>
+        <v>950.86630400000092</v>
       </c>
       <c r="K10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L10" s="2">
         <f>L7*L9</f>
@@ -1268,7 +1366,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C11" s="4">
         <f>D11/$G$2</f>
@@ -1279,16 +1377,16 @@
       </c>
       <c r="E11" s="1">
         <f t="shared" ref="E11:E14" si="8">E10-C11</f>
-        <v>-514.18396369137679</v>
+        <v>530.31987897125657</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="2"/>
-        <v>-543.80096000000015</v>
+        <v>560.86630400000104</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C12" s="4">
         <f>C11*0.19</f>
@@ -1299,16 +1397,16 @@
       </c>
       <c r="E12" s="1">
         <f>E11-C12</f>
-        <v>-584.24826021180036</v>
+        <v>460.255582450833</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" ref="F12" si="9">E12*$G$2</f>
-        <v>-617.90096000000017</v>
+        <v>486.76630400000101</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C13" s="4">
         <f>((K80+K64)*15)+(K81*20)</f>
@@ -1320,19 +1418,19 @@
       </c>
       <c r="E13" s="1">
         <f>E12-C13</f>
-        <v>-1529.2482602118002</v>
+        <v>-484.744417549167</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="2"/>
-        <v>-1617.3329600000002</v>
+        <v>-512.66569599999912</v>
       </c>
       <c r="J13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B14" s="3">
         <v>0.1</v>
@@ -1347,14 +1445,14 @@
       </c>
       <c r="E14" s="1">
         <f t="shared" si="8"/>
-        <v>-1551.2482602118002</v>
+        <v>-506.744417549167</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="2"/>
-        <v>-1640.6001600000002</v>
+        <v>-535.93289599999912</v>
       </c>
       <c r="K14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L14">
         <v>100</v>
@@ -1365,7 +1463,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C15" s="4">
         <v>200</v>
@@ -1376,14 +1474,14 @@
       </c>
       <c r="E15" s="1">
         <f t="shared" ref="E15" si="12">E14-C15</f>
-        <v>-1751.2482602118002</v>
+        <v>-706.744417549167</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" ref="F15" si="13">E15*$G$2</f>
-        <v>-1852.1201600000002</v>
+        <v>-747.4528959999991</v>
       </c>
       <c r="K15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L15" s="2">
         <v>3.27</v>
@@ -1394,7 +1492,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C16" s="4">
         <v>100</v>
@@ -1405,14 +1503,14 @@
       </c>
       <c r="E16" s="1">
         <f t="shared" ref="E16" si="14">E15-C16</f>
-        <v>-1851.2482602118002</v>
+        <v>-806.744417549167</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" ref="F16" si="15">E16*$G$2</f>
-        <v>-1957.8801600000002</v>
+        <v>-853.21289599999909</v>
       </c>
       <c r="K16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L16" s="2">
         <f>L14*L15</f>
@@ -1423,9 +1521,9 @@
         <v>410</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="2"/>
@@ -1434,9 +1532,9 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="2"/>
@@ -1445,42 +1543,42 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C19" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L21">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L22" s="2">
         <v>8.3000000000000007</v>
       </c>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L23" s="2">
         <f>L21*L22</f>
@@ -1488,98 +1586,114 @@
       </c>
       <c r="M23" s="2"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J29" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>135</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N29" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O29" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="O29" s="9" t="s">
-        <v>86</v>
-      </c>
       <c r="P29" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Q29" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J30" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K30" s="7">
         <v>42</v>
       </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
       <c r="M30" s="5">
         <v>17</v>
       </c>
       <c r="N30" s="5">
-        <f>K30*M30</f>
+        <f>K30*(M30-L30)</f>
         <v>714</v>
       </c>
       <c r="O30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q30" s="5">
         <f>N30*0.2</f>
         <v>142.80000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J31" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K31" s="7">
         <v>22</v>
       </c>
+      <c r="L31">
+        <v>10</v>
+      </c>
       <c r="M31" s="5">
         <v>59</v>
       </c>
       <c r="N31" s="5">
-        <f t="shared" ref="N31:N37" si="16">K31*M31</f>
-        <v>1298</v>
+        <f t="shared" ref="N31:N37" si="16">K31*(M31-L31)</f>
+        <v>1078</v>
       </c>
       <c r="O31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q31" s="5">
         <f>N31*0.2</f>
-        <v>259.60000000000002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>215.60000000000002</v>
+      </c>
+      <c r="S31">
+        <f>2957.25/200</f>
+        <v>14.786250000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="J32" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K32" s="7">
         <v>19</v>
       </c>
+      <c r="L32">
+        <v>10</v>
+      </c>
       <c r="M32" s="5">
         <v>130</v>
       </c>
       <c r="N32" s="5">
         <f t="shared" si="16"/>
-        <v>2470</v>
+        <v>2280</v>
       </c>
       <c r="O32" t="s">
+        <v>86</v>
+      </c>
+      <c r="P32" t="s">
         <v>88</v>
       </c>
-      <c r="P32" t="s">
-        <v>90</v>
-      </c>
       <c r="Q32" s="5">
-        <f>($M$31*K32*0.2)+(18*K32*0.2)</f>
-        <v>292.60000000000002</v>
+        <f>($M$31*(K32-L31)*0.2)+(18*K32*0.2)</f>
+        <v>174.60000000000002</v>
       </c>
     </row>
     <row r="33" spans="10:17" ht="30" x14ac:dyDescent="0.25">
       <c r="J33" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K33" s="7">
         <v>6</v>
@@ -1595,10 +1709,13 @@
     </row>
     <row r="34" spans="10:17" ht="30" x14ac:dyDescent="0.25">
       <c r="J34" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K34" s="7">
         <v>6</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
       </c>
       <c r="M34" s="5">
         <v>65</v>
@@ -1608,10 +1725,10 @@
         <v>390</v>
       </c>
       <c r="O34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Q34" s="5">
         <f>M30*0.2+M51*0.2</f>
@@ -1620,23 +1737,26 @@
     </row>
     <row r="35" spans="10:17" ht="30" x14ac:dyDescent="0.25">
       <c r="J35" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K35" s="7">
         <v>2</v>
       </c>
+      <c r="L35">
+        <v>10</v>
+      </c>
       <c r="M35" s="5">
         <v>232</v>
       </c>
       <c r="N35" s="5">
         <f t="shared" si="16"/>
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="O35" t="s">
+        <v>86</v>
+      </c>
+      <c r="P35" t="s">
         <v>88</v>
-      </c>
-      <c r="P35" t="s">
-        <v>90</v>
       </c>
       <c r="Q35" s="5">
         <f>($M$31*K35*0.2)+(18*K35*0.2)</f>
@@ -1645,7 +1765,7 @@
     </row>
     <row r="36" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J36" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K36" s="7">
         <v>1</v>
@@ -1658,36 +1778,39 @@
         <v>37</v>
       </c>
       <c r="O36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q36" s="5">
         <f t="shared" ref="Q36" si="17">N36*0.2</f>
         <v>7.4</v>
       </c>
     </row>
-    <row r="37" spans="10:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J37" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K37" s="7">
         <v>1</v>
       </c>
+      <c r="L37">
+        <v>10</v>
+      </c>
       <c r="M37" s="5">
         <v>204</v>
       </c>
       <c r="N37" s="5">
         <f t="shared" si="16"/>
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="O37" t="s">
+        <v>86</v>
+      </c>
+      <c r="P37" t="s">
         <v>88</v>
       </c>
-      <c r="P37" t="s">
-        <v>90</v>
-      </c>
       <c r="Q37" s="5">
-        <f>($M$31*K37*0.2)+(18*K37*0.2)</f>
-        <v>15.4</v>
+        <f>(($M$31-L37*K37)*0.2)+(18*K37*0.2)</f>
+        <v>13.4</v>
       </c>
     </row>
     <row r="38" spans="10:17" x14ac:dyDescent="0.25">
@@ -1695,24 +1818,24 @@
     </row>
     <row r="39" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J39" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M39" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="N39" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O39" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="N39" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="O39" s="9" t="s">
-        <v>85</v>
-      </c>
       <c r="Q39" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" spans="10:17" ht="30" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J40" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K40" s="7">
         <v>11</v>
@@ -1730,7 +1853,7 @@
     </row>
     <row r="41" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J41" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K41" s="7">
         <v>9</v>
@@ -1748,7 +1871,7 @@
     </row>
     <row r="42" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J42" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K42" s="7">
         <v>6</v>
@@ -1766,7 +1889,7 @@
     </row>
     <row r="43" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J43" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K43" s="7">
         <v>2</v>
@@ -1784,7 +1907,7 @@
     </row>
     <row r="44" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J44" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K44" s="7">
         <v>2</v>
@@ -1802,7 +1925,7 @@
     </row>
     <row r="45" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J45" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K45" s="7">
         <v>2</v>
@@ -1820,7 +1943,7 @@
     </row>
     <row r="46" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J46" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K46" s="7">
         <v>1</v>
@@ -1836,7 +1959,7 @@
         <v>19</v>
       </c>
       <c r="O46" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q46" s="5">
         <f>N46*0.2</f>
@@ -1845,7 +1968,7 @@
     </row>
     <row r="47" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J47" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K47" s="7">
         <v>1</v>
@@ -1861,7 +1984,7 @@
         <v>18</v>
       </c>
       <c r="O47" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q47" s="5">
         <f>N47*0.2</f>
@@ -1870,7 +1993,7 @@
     </row>
     <row r="48" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J48" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K48" s="7">
         <v>1</v>
@@ -1888,7 +2011,7 @@
     </row>
     <row r="49" spans="9:20" x14ac:dyDescent="0.25">
       <c r="J49" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K49" s="7">
         <v>1</v>
@@ -1906,7 +2029,7 @@
     </row>
     <row r="50" spans="9:20" x14ac:dyDescent="0.25">
       <c r="J50" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K50" s="7">
         <v>0</v>
@@ -1924,7 +2047,7 @@
     </row>
     <row r="51" spans="9:20" x14ac:dyDescent="0.25">
       <c r="J51" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K51" s="7">
         <v>0</v>
@@ -1942,48 +2065,48 @@
     </row>
     <row r="54" spans="9:20" x14ac:dyDescent="0.25">
       <c r="S54" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T54" s="5">
         <f>SUM(Q30:Q37)+SUM(Q40:Q51)</f>
-        <v>764.59999999999991</v>
+        <v>600.59999999999991</v>
       </c>
     </row>
     <row r="61" spans="9:20" x14ac:dyDescent="0.25">
       <c r="I61" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K61" s="9"/>
       <c r="L61" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M61" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="9:20" x14ac:dyDescent="0.25">
       <c r="I62" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K62" s="7">
         <v>74</v>
       </c>
       <c r="M62" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="9:20" x14ac:dyDescent="0.25">
       <c r="I63" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K63" s="7">
         <v>99</v>
@@ -1991,10 +2114,10 @@
     </row>
     <row r="64" spans="9:20" x14ac:dyDescent="0.25">
       <c r="I64" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J64" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K64" s="7">
         <v>44</v>
@@ -2002,10 +2125,10 @@
     </row>
     <row r="65" spans="4:11" x14ac:dyDescent="0.25">
       <c r="I65" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K65" s="7">
         <v>23</v>
@@ -2013,13 +2136,13 @@
     </row>
     <row r="66" spans="4:11" x14ac:dyDescent="0.25">
       <c r="H66" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I66" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K66" s="7">
         <v>24</v>
@@ -2027,10 +2150,10 @@
     </row>
     <row r="67" spans="4:11" x14ac:dyDescent="0.25">
       <c r="I67" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J67" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K67" s="7">
         <v>24</v>
@@ -2038,10 +2161,10 @@
     </row>
     <row r="68" spans="4:11" x14ac:dyDescent="0.25">
       <c r="I68" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K68" s="7">
         <v>24</v>
@@ -2049,10 +2172,10 @@
     </row>
     <row r="69" spans="4:11" x14ac:dyDescent="0.25">
       <c r="I69" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K69" s="7">
         <v>22</v>
@@ -2060,7 +2183,7 @@
     </row>
     <row r="70" spans="4:11" x14ac:dyDescent="0.25">
       <c r="J70" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K70" s="7">
         <v>22</v>
@@ -2068,7 +2191,7 @@
     </row>
     <row r="71" spans="4:11" x14ac:dyDescent="0.25">
       <c r="J71" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K71" s="7">
         <v>22</v>
@@ -2076,13 +2199,13 @@
     </row>
     <row r="72" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I72" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K72" s="7">
         <v>2</v>
@@ -2090,10 +2213,10 @@
     </row>
     <row r="73" spans="4:11" x14ac:dyDescent="0.25">
       <c r="I73" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J73" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K73" s="7">
         <v>6</v>
@@ -2101,10 +2224,10 @@
     </row>
     <row r="74" spans="4:11" x14ac:dyDescent="0.25">
       <c r="I74" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J74" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K74" s="7">
         <v>7</v>
@@ -2112,10 +2235,10 @@
     </row>
     <row r="75" spans="4:11" x14ac:dyDescent="0.25">
       <c r="I75" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J75" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K75" s="7">
         <v>6</v>
@@ -2126,13 +2249,13 @@
         <v>45809</v>
       </c>
       <c r="E76" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I76" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J76" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K76" s="7">
         <v>6</v>
@@ -2143,13 +2266,13 @@
         <v>45870</v>
       </c>
       <c r="E77" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I77" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K77" s="7">
         <v>5</v>
@@ -2160,13 +2283,13 @@
         <v>45901</v>
       </c>
       <c r="E78" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I78" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J78" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K78" s="7">
         <v>1</v>
@@ -2177,13 +2300,13 @@
         <v>45931</v>
       </c>
       <c r="E79" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I79" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K79" s="7">
         <v>9</v>
@@ -2194,13 +2317,13 @@
         <v>45931</v>
       </c>
       <c r="E80" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I80" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K80" s="7">
         <v>11</v>
@@ -2208,10 +2331,10 @@
     </row>
     <row r="81" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I81" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J81" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K81" s="7">
         <v>6</v>
@@ -2219,7 +2342,7 @@
     </row>
     <row r="85" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I85" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J85" s="7">
         <v>34</v>
@@ -2234,7 +2357,7 @@
     </row>
     <row r="86" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I86" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J86" s="7">
         <v>33</v>
@@ -2249,7 +2372,7 @@
     </row>
     <row r="87" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I87" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J87" s="7">
         <v>8</v>
@@ -2264,7 +2387,7 @@
     </row>
     <row r="88" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I88" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J88" s="7">
         <v>3</v>
@@ -2279,7 +2402,7 @@
     </row>
     <row r="89" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I89" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J89" s="7">
         <v>3</v>
@@ -2294,7 +2417,7 @@
     </row>
     <row r="90" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I90" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J90" s="7">
         <v>2</v>
@@ -2309,7 +2432,7 @@
     </row>
     <row r="91" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I91" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J91" s="7">
         <v>2</v>
@@ -2324,7 +2447,7 @@
     </row>
     <row r="92" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I92" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J92" s="7">
         <v>2</v>
@@ -2339,7 +2462,7 @@
     </row>
     <row r="93" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I93" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J93" s="7">
         <v>1</v>
@@ -2354,7 +2477,7 @@
     </row>
     <row r="94" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I94" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J94" s="7">
         <v>1</v>
@@ -2369,7 +2492,7 @@
     </row>
     <row r="95" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I95" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J95" s="7">
         <v>1</v>
@@ -2384,7 +2507,7 @@
     </row>
     <row r="96" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I96" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J96" s="7">
         <v>1</v>
@@ -2399,7 +2522,7 @@
     </row>
     <row r="97" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I97" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J97" s="7">
         <v>1</v>
@@ -2414,7 +2537,7 @@
     </row>
     <row r="98" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I98" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J98" s="7">
         <v>1</v>
@@ -2429,14 +2552,14 @@
     </row>
     <row r="99" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I99" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J99">
         <f>SUM(J85:J98)</f>
         <v>93</v>
       </c>
       <c r="K99" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L99" s="2">
         <f>SUM(L85:L98)</f>
